--- a/output/test_predictions.xlsx
+++ b/output/test_predictions.xlsx
@@ -24,6 +24,7 @@
     <sheet name="mlp" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="transformer" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="random_forest" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="linear_regression" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22333,6 +22334,2192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A433"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>predictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.04311283794651199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.623875640542021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.003060837344778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3122186880516018</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8061554938766415</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.4807539072889025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.06091067259525218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5118883225966178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4716640687014459</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.3388644670362411</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.8695701365134727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3091580355234566</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6346685267442354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.748153375796321</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.321832297452837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.1403753590650549</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.8067828168248301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.5726137121858601</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.5520659576835409</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3061245481499044</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6086120990343177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.7521191503864733</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6656081377214678</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1605892046904149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.7459927397388795</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.5469569232905886</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4572000027044979</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4534055303610049</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.5402611669632993</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3784496022617918</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2177944566674079</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.459228127059335</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2985958166951812</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5455859431582015</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.001265171936030818</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.733740605561356</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.2492665844418666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.4076537412496486</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.8803716981080163</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.7601719661184667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.3503558670593414</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.3028969971310613</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.2124205622571959</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.4845110630960028</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.4870684970530528</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9778671419847225</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.3947657314103734</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.5349381236210538</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.1131113999737583</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.8269821561746357</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.5375146282989445</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.2951224117076149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.1315537264174051</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.5999636875484382</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.5763966959579385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.3684645489499958</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.8595080253958605</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.019619437597413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.7068134413359093</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.1526876794455715</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.461346662204841</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-0.0182235381962188</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.3342125276897089</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.5862926919570004</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.2991416156961374</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.631228494713007</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.6570277470522851</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.1542040621590971</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.1645716800458483</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.6901611265916279</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.5408448588765926</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.3929223686083091</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.3351532650630219</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.3735133873257925</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-0.4057473496773412</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.4650266920428647</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.6430820734815059</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.5860859209665203</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.1396353759203148</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.02420400194972205</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.2253161363171727</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.4023107096751088</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.3884151098037598</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.1733887970733473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.8361640529158213</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.3243835884240464</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.9898627667724458</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.3733720419420676</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.3394671758444694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.476236484990044</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.4025399987166186</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.6321813387285902</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.5766753678264285</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.3609765609508577</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.4392798281582455</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.5850426075052132</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.264619603605607</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3351938792165057</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.5970847318537703</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.6523315867936134</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.06324807362231177</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.09688850994291287</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7629765741684427</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.5440501372095528</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.6864953218952318</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8048139356495836</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.707251221555997</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.5308026986655781</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.42882657584404</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9649405720370822</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.516821166768165</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8833592066096785</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.4928892788101475</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.4705256573906453</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.5604727512064244</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.557953741616328</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.8840433884200144</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.2855509974553129</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.3238757819985281</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.008098417720115</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-0.006745611794493511</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.385925943125321</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.071772441697989</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.8248574400408013</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.3257113926700448</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.756705864443576</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.5115520054600471</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.04589010758028578</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.4618743068315672</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.04885792777387521</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.7798480772334336</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.009615267529980986</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.2303903814385992</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.4076537412496486</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.05528682715079269</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.6784080796432093</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.6158131183803924</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.6818110413072569</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.5318843433815506</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.4559367339464262</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.6915222222597975</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.5273956305292917</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8359674859756648</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.1612598317325056</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.4528611573970598</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.1634435408557664</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.3419339195021009</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.3412434859008167</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.471545401804477</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.2471573895502902</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.5829356234129472</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.1028853245429395</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.049967094387118</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.2833860946545099</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.4387036441976109</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.5732612606512479</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.5366263713923081</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.2615116439538563</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.5715202944477302</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.4362504310977242</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.00071079872649</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.8724380113465752</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.131023318079549</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.1321407304020659</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.2750102213450936</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.4807358452225284</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.7094276531951387</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.2664842750886524</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.4134554145880911</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.1421190572115714</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.3341410309492326</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.6597327904216406</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.2384111936615136</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.3257682944496589</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-0.04834753474086662</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.8732405302442968</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.93165782459942</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.032270476840843</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.5954301717997577</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.7583227478698986</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9512657473630564</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9541299833509418</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9834280463978398</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.5126485888442749</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.5570252849120609</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9600331534206724</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.383473169828378</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.8930945483038824</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.3062936396777293</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.2351697115528503</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.3289900335084481</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.5392988647156363</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.5624242834956372</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.477981138214667</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.4981226227116112</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.1991969527711915</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.3418059902421768</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.3389833428127981</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.5229841996470831</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.6426684031482994</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.2644086578624644</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.2408480556113785</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.7470092744923031</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.1596988316167388</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.6316358694265382</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.098271012770139</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.4881824508585011</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.7618636561118199</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.1212986313944786</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.3872881483675648</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.6737195980898123</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.5838774039766426</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.5226083456488257</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.7995205206633569</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.2242903147101012</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.7194573942084193</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.515991982972219</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.1273829353368792</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.3852158373164236</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.2250764410954877</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.4650644185680283</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.2075168740158233</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.4206974457876229</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.5762547797288982</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.6361965956250499</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.7056267556387088</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.467948808667267</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.2180116479327144</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.391485842244222</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-0.06251500523860276</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.1753699984326698</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.3075651839071815</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.5810884892892498</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.255731576440525</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.2267019950096663</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.355489623830938</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.067165946776676</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.414536667647021</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.1559277986058853</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.5904660020633838</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.1364688923128089</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.2708842337945101</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.1666828375421016</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.4122847413129063</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.4807618007222425</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.5756159385054214</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.6741024262250355</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.4564259265567063</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.5936248891448359</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.0837722997770205</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.3079872056100557</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.4654282839092971</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.7779990013619745</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.5220329398377206</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.1572768762444486</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.8381193178194318</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.323294386587196</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.4225782212257192</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.9504496142334574</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.6642060183784331</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.6062710981468837</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-0.04744880976879218</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.8625328970129749</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.5823205356487102</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.2470348977564639</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.5616627972580313</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.2192605107708251</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.6165835760571364</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.4232421803880002</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.8381193178194318</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.2177346990351265</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.3102407192730947</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.1510735646278727</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.3819114228880915</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.4394604365513706</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.5011637985941955</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.4552001155001362</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.4014765830523704</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.6914202372849604</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.6473804961731231</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.7794904119397025</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.3859549215975984</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.4982101028792374</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.5830640856937084</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.6896614449637843</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.5919459683556221</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.3482160806129926</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.5002289489767882</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.7867589545575024</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.6426684031482994</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.8455573655117781</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.1472042910448831</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.9001565860224554</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.3645072371486435</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.5288021926868748</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.4472482990778595</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.631228494713007</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.131587079251915</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.4775893672300506</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.1317124013907478</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.3994355696139412</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.3841174794812596</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.6342949349928256</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.5985490346172999</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.2126940794992014</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.5569265466876462</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.419482324999001</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.4013295062339769</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.6465876752522737</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.2982934294046844</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.759578647322638</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.3436210868331155</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.6444896567934021</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-0.1098575299017488</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.2205933465624129</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.2041588787332702</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.8385155601519311</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-0.03764241164527715</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.5494881841952823</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.8087604402767176</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.360029114747966</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.1749003896724037</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-0.08768964394196277</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.6579822769798542</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.5340183512064305</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.05803788424582046</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.4682637703011745</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1.247960288647153</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.2310431385610058</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.5838613990693708</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.4901557597088066</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.3013899441451449</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.1759389029385607</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.5919286234626238</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.4922519569962238</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.316594335429166</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.014408728182914</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.5733090395529802</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.8144030849930601</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.3080317048244816</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.6155447676848812</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.2537273485542919</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.4134554145880911</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1.399277769910066</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.7989261571591511</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.2158597574835563</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.512077297610902</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.3677735905671372</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.6456536084192768</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.4202306105943433</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.7481456349191087</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.0171637548665422</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.4288265758358762</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.3274930630138148</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1.001696471460911</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.4914028169033453</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.3668433475582592</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.7490925071506367</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.2855509974553129</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.2982934294061255</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1.016159681731654</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.6223088826380636</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.3852158373164236</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1.019619437597413</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.6714604254703962</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.03698129910523074</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.8991991617943524</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.9320511404959166</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.3623659850827013</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.1314651789010244</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.7639341611538217</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.5863899332329581</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.5588302344956112</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.4657446954419155</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.245228993753889</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.6130661017314241</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.5911793903619345</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.6160234989974206</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.4317518812701371</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.4072670155551099</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.5178339906903906</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.0582254012646588</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.2940898372884586</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.7284590096687029</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.7503316984912103</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.06295301225183336</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.2192736926465738</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.1441864830621491</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.631067021073638</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.06126106567314094</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.8180937030976745</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.4390544212268255</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1.010445274617408</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.1021841284559</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.9747135296833009</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.8013276003528635</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.2007906475240138</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.4423816828968068</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.2931157375824471</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.1397084620617935</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.9294809119701725</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.6629642467410346</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.3268123822687847</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.286050898715566</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.5829212998450002</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1.024901842782888</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.07741625327331836</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.7637130550610607</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.1533862282113578</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.5760429602278587</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.4780347010985997</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.7830446237608237</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.3188152269786901</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.6770667913079451</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.3562062026038311</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1.031629358023314</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.1167313235299616</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.443303952250045</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.3859259431276907</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.293051064114048</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.2842010740552803</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.3407303484254025</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.2160215334296522</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.1845279196649616</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.8235838491283414</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1.005684559436842</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.5250372512787866</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.5544691570634614</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.5373400946561602</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.3943340146277017</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.8833592066096785</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.4063782067291533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -28902,14 +31089,14 @@
   </sheetPr>
   <dimension ref="A1:A433"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>predictions</t>
         </is>
@@ -28917,2167 +31104,2166 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09634653478860855</v>
+        <v>0.09542826563119888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5284572243690491</v>
+        <v>0.5287206172943115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.516696035861969</v>
+        <v>0.5193482041358948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4675979316234589</v>
+        <v>0.4699217677116394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7660049200057983</v>
+        <v>0.7702403664588928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6078853011131287</v>
+        <v>0.6048649549484253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3047897815704346</v>
+        <v>0.3074802756309509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4908620119094849</v>
+        <v>0.4912320077419281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2370909005403519</v>
+        <v>0.240150511264801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2697225511074066</v>
+        <v>0.2654793858528137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.015230298042297</v>
+        <v>1.01579737663269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4587072432041168</v>
+        <v>0.4597944021224976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1737076193094254</v>
+        <v>0.1747662276029587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.065311908721924</v>
+        <v>1.063561320304871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1571238487958908</v>
+        <v>0.15609972178936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1636145859956741</v>
+        <v>0.1633640974760056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.016041159629822</v>
+        <v>1.017024159431458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5084531307220459</v>
+        <v>0.5088416337966919</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4786390960216522</v>
+        <v>0.4774086177349091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2343173176050186</v>
+        <v>0.2361386269330978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.44083371758461</v>
+        <v>0.440984845161438</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7824547290802002</v>
+        <v>0.7753538489341736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7863402366638184</v>
+        <v>0.7855756282806396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.09559492021799088</v>
+        <v>0.09811732918024063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7000342607498169</v>
+        <v>0.701332151889801</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4338941276073456</v>
+        <v>0.4328973889350891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7085672616958618</v>
+        <v>0.7081414461135864</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3989309370517731</v>
+        <v>0.3984137177467346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3860889077186584</v>
+        <v>0.3952254056930542</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5191763043403625</v>
+        <v>0.5203980803489685</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1362883299589157</v>
+        <v>0.135979101061821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1499966531991959</v>
+        <v>0.1485183387994766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4869067072868347</v>
+        <v>0.4863377511501312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6538764834403992</v>
+        <v>0.6561595797538757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5292502641677856</v>
+        <v>0.5235656499862671</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8004106879234314</v>
+        <v>0.8017786145210266</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6123830676078796</v>
+        <v>0.6123178005218506</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3425219357013702</v>
+        <v>0.3513733148574829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8860534429550171</v>
+        <v>0.88673335313797</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5797960758209229</v>
+        <v>0.5814674496650696</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4619861841201782</v>
+        <v>0.4665229022502899</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3581022620201111</v>
+        <v>0.3611584007740021</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4438597559928894</v>
+        <v>0.4419881403446198</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.371160477399826</v>
+        <v>0.3719429671764374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4886099398136139</v>
+        <v>0.4886888265609741</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8821024298667908</v>
+        <v>0.8836022615432739</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2380461394786835</v>
+        <v>0.2355834990739822</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4624244868755341</v>
+        <v>0.4629500210285187</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1654444485902786</v>
+        <v>0.165775403380394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6067197322845459</v>
+        <v>0.6016170382499695</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5089905858039856</v>
+        <v>0.5065407156944275</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.06442794948816299</v>
+        <v>0.06366676837205887</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.3538831770420074</v>
+        <v>0.3576192557811737</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.5847491025924683</v>
+        <v>0.5824980735778809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6322265863418579</v>
+        <v>0.6344689726829529</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4280741214752197</v>
+        <v>0.4276713728904724</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9735111594200134</v>
+        <v>0.9654245972633362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.5958553552627563</v>
+        <v>0.5986469388008118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6185818314552307</v>
+        <v>0.6154389381408691</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2076138406991959</v>
+        <v>0.2107424288988113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.3592852652072906</v>
+        <v>0.3596856594085693</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2781815230846405</v>
+        <v>0.2789959311485291</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1421807259321213</v>
+        <v>0.1415704339742661</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7421983480453491</v>
+        <v>0.7477335929870605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2394873648881912</v>
+        <v>0.2406309843063354</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6369300484657288</v>
+        <v>0.6393921971321106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6893255710601807</v>
+        <v>0.6885554790496826</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1372671872377396</v>
+        <v>0.1385998278856277</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3021320998668671</v>
+        <v>0.3024231195449829</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7029786705970764</v>
+        <v>0.7009263634681702</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7789892554283142</v>
+        <v>0.7801831960678101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4310613572597504</v>
+        <v>0.4318282604217529</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.246200829744339</v>
+        <v>0.2486090511083603</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8571797013282776</v>
+        <v>0.8535497784614563</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8480570316314697</v>
+        <v>0.8457476496696472</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3867739737033844</v>
+        <v>0.3910585939884186</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.632056713104248</v>
+        <v>0.6335487961769104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7534834742546082</v>
+        <v>0.7539640665054321</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1633762568235397</v>
+        <v>0.1632555276155472</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.06905270367860794</v>
+        <v>0.06595060974359512</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3481641709804535</v>
+        <v>0.3457383811473846</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2902655303478241</v>
+        <v>0.2868090271949768</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2678360044956207</v>
+        <v>0.2666729390621185</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.07798010855913162</v>
+        <v>0.07758695632219315</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8955678939819336</v>
+        <v>0.8950473666191101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2213159948587418</v>
+        <v>0.2202420383691788</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9254341125488281</v>
+        <v>0.9246205687522888</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2840207815170288</v>
+        <v>0.2839971780776978</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.2780709564685822</v>
+        <v>0.2791614830493927</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5228859782218933</v>
+        <v>0.5216142535209656</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4092322885990143</v>
+        <v>0.4081892967224121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7035819292068481</v>
+        <v>0.7031543254852295</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6329870820045471</v>
+        <v>0.6352307200431824</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8144108653068542</v>
+        <v>0.8091910481452942</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.3486855328083038</v>
+        <v>0.3462817072868347</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4697794020175934</v>
+        <v>0.4711525440216064</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.276366800069809</v>
+        <v>0.2791057527065277</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.365152508020401</v>
+        <v>0.3647005259990692</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7873479127883911</v>
+        <v>0.7865453958511353</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4765330255031586</v>
+        <v>0.4762440025806427</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5085729956626892</v>
+        <v>0.5091358423233032</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.02704082056879997</v>
+        <v>0.0285428874194622</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6395688652992249</v>
+        <v>0.6529920697212219</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2928652763366699</v>
+        <v>0.3058539032936096</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6722546219825745</v>
+        <v>0.6696940660476685</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8263006210327148</v>
+        <v>0.8224339485168457</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.5908306241035461</v>
+        <v>0.5935589671134949</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4358883798122406</v>
+        <v>0.4428445100784302</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6259395480155945</v>
+        <v>0.624474048614502</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.669550895690918</v>
+        <v>0.6712997555732727</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4205615520477295</v>
+        <v>0.4217019975185394</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7931345105171204</v>
+        <v>0.7905663847923279</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4277811646461487</v>
+        <v>0.4287426769733429</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.5632575750350952</v>
+        <v>0.5608290433883667</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2716890871524811</v>
+        <v>0.2757526934146881</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2092971354722977</v>
+        <v>0.2129642516374588</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7437226176261902</v>
+        <v>0.7438240051269531</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2111039310693741</v>
+        <v>0.2136761397123337</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4780529737472534</v>
+        <v>0.4640026688575745</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6237703561782837</v>
+        <v>0.6298836469650269</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.2097397297620773</v>
+        <v>0.1999496668577194</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.5784000754356384</v>
+        <v>0.5710758566856384</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.003647923469543</v>
+        <v>1.004116773605347</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.9133073091506958</v>
+        <v>0.9168038964271545</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.2878177165985107</v>
+        <v>0.289203554391861</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7414826154708862</v>
+        <v>0.740749716758728</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1669093519449234</v>
+        <v>0.1628049165010452</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.09662479907274246</v>
+        <v>0.09885928779840469</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7224630117416382</v>
+        <v>0.7232714295387268</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1166053488850594</v>
+        <v>0.1186851933598518</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.9134223461151123</v>
+        <v>0.9126460552215576</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1589987128973007</v>
+        <v>0.1583363562822342</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1822588294744492</v>
+        <v>0.1853796690702438</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3425218760967255</v>
+        <v>0.3513733148574829</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3462522923946381</v>
+        <v>0.347483366727829</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5892048478126526</v>
+        <v>0.5840554237365723</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.6576120257377625</v>
+        <v>0.6562840342521667</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8498771786689758</v>
+        <v>0.8477349877357483</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.5287818908691406</v>
+        <v>0.5314138531684875</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4423143863677979</v>
+        <v>0.4523618519306183</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.3772103488445282</v>
+        <v>0.3786183893680573</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.6682001948356628</v>
+        <v>0.665060818195343</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.886330246925354</v>
+        <v>0.8866768479347229</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2325457781553268</v>
+        <v>0.240647479891777</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.2922106385231018</v>
+        <v>0.2936789095401764</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.2870487570762634</v>
+        <v>0.2945467531681061</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.1229019537568092</v>
+        <v>0.1235551312565804</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8131616115570068</v>
+        <v>0.8082913160324097</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.3876530528068542</v>
+        <v>0.3787867724895477</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.1575552076101303</v>
+        <v>0.1594783514738083</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.246879905462265</v>
+        <v>0.2463141083717346</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.09727246314287186</v>
+        <v>0.09648988395929337</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.015538096427917</v>
+        <v>1.01616644859314</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.171546682715416</v>
+        <v>0.1721945554018021</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.4180929362773895</v>
+        <v>0.416466236114502</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6066423058509827</v>
+        <v>0.6056452989578247</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7601881623268127</v>
+        <v>0.7556224465370178</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.3504090309143066</v>
+        <v>0.3405022323131561</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.4304572939872742</v>
+        <v>0.4273115992546082</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1950612515211105</v>
+        <v>0.1935640424489975</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.9961300492286682</v>
+        <v>0.9949648380279541</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.5078316330909729</v>
+        <v>0.5048105120658875</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8172515630722046</v>
+        <v>0.8044331073760986</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1286967545747757</v>
+        <v>0.1306797415018082</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1589498072862625</v>
+        <v>0.1600096076726913</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.6077463626861572</v>
+        <v>0.6047255396842957</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7304204106330872</v>
+        <v>0.7331320643424988</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3241057693958282</v>
+        <v>0.3264279067516327</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3989211022853851</v>
+        <v>0.3924426138401031</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1168687418103218</v>
+        <v>0.1182303205132484</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2095042616128922</v>
+        <v>0.2106116861104965</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.5174819827079773</v>
+        <v>0.5154615640640259</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1294734925031662</v>
+        <v>0.1305791586637497</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4214261770248413</v>
+        <v>0.4280674755573273</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1169449761509895</v>
+        <v>0.1169107928872108</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.5748690366744995</v>
+        <v>0.5720839500427246</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7998201847076416</v>
+        <v>0.79603111743927</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.3168196976184845</v>
+        <v>0.3263921439647675</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5623704195022583</v>
+        <v>0.5606461763381958</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7371404767036438</v>
+        <v>0.7357444763183594</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.024461388587952</v>
+        <v>1.024021625518799</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.5079839825630188</v>
+        <v>0.5099377632141113</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5905094146728516</v>
+        <v>0.5981855988502502</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.8151473999023438</v>
+        <v>0.81516432762146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.5651362538337708</v>
+        <v>0.5630711913108826</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.9357844591140747</v>
+        <v>0.934796929359436</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1485068053007126</v>
+        <v>0.1480875760316849</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.6216862201690674</v>
+        <v>0.6223753094673157</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.4014185965061188</v>
+        <v>0.4025495946407318</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.3588439524173737</v>
+        <v>0.3630193769931793</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.3788148760795593</v>
+        <v>0.3678846955299377</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.3927056193351746</v>
+        <v>0.3817504942417145</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.8848838210105896</v>
+        <v>0.88442462682724</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.5763111114501953</v>
+        <v>0.5794303417205811</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.2541888356208801</v>
+        <v>0.2542922496795654</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1076206937432289</v>
+        <v>0.1094634607434273</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.8206967115402222</v>
+        <v>0.8157203793525696</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.1139434948563576</v>
+        <v>0.1148102954030037</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.3663510084152222</v>
+        <v>0.3660197257995605</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.3221926689147949</v>
+        <v>0.3176658451557159</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.09778333455324173</v>
+        <v>0.09643752127885818</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.1451610773801804</v>
+        <v>0.1476286500692368</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9120892882347107</v>
+        <v>0.9110690355300903</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.5615430474281311</v>
+        <v>0.5640329718589783</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7250608801841736</v>
+        <v>0.7254884839057922</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7751350402832031</v>
+        <v>0.7847733497619629</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7897953987121582</v>
+        <v>0.7911685109138489</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.6971145868301392</v>
+        <v>0.694644033908844</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.1659479886293411</v>
+        <v>0.1672378033399582</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.4805345833301544</v>
+        <v>0.4787674844264984</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7729907035827637</v>
+        <v>0.7733200192451477</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.3503450453281403</v>
+        <v>0.355432003736496</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.8069682121276855</v>
+        <v>0.8064061999320984</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7768411040306091</v>
+        <v>0.7726483345031738</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.2358638495206833</v>
+        <v>0.2356028407812119</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8819987177848816</v>
+        <v>0.8844031691551208</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.1749751716852188</v>
+        <v>0.1771563142538071</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.1826875656843185</v>
+        <v>0.1815112978219986</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.4872938692569733</v>
+        <v>0.4866059422492981</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.3218896389007568</v>
+        <v>0.3245185315608978</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.4176381826400757</v>
+        <v>0.4249267280101776</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.01029161736369133</v>
+        <v>0.01252336427569389</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.2448401153087616</v>
+        <v>0.2455254197120667</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.631834864616394</v>
+        <v>0.6340760588645935</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.5398073792457581</v>
+        <v>0.5429693460464478</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7927317023277283</v>
+        <v>0.7945296764373779</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8181541562080383</v>
+        <v>0.8209828734397888</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.210553452372551</v>
+        <v>0.2104301005601883</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.2503708302974701</v>
+        <v>0.2480439245700836</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.002091575879603624</v>
+        <v>-0.002602953929454088</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.05589918419718742</v>
+        <v>0.05684391781687737</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.2675802707672119</v>
+        <v>0.2687503695487976</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.3655475974082947</v>
+        <v>0.368950754404068</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.8954098224639893</v>
+        <v>0.8994898200035095</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.2292641252279282</v>
+        <v>0.2291486710309982</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7596081495285034</v>
+        <v>0.7450754046440125</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.9678487181663513</v>
+        <v>0.9675973057746887</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.3332854509353638</v>
+        <v>0.3334185183048248</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1117959097027779</v>
+        <v>0.1122470274567604</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.8067944645881653</v>
+        <v>0.8015884160995483</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.1317629367113113</v>
+        <v>0.134875699877739</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.4833374321460724</v>
+        <v>0.4836107194423676</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.07650125771760941</v>
+        <v>0.07587245851755142</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.3365117609500885</v>
+        <v>0.333219051361084</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.5468051433563232</v>
+        <v>0.5500384569168091</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.3692589104175568</v>
+        <v>0.3691068291664124</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.7090727686882019</v>
+        <v>0.708185076713562</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.1341284662485123</v>
+        <v>0.1324433833360672</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.5317213535308838</v>
+        <v>0.5313151478767395</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.5245931148529053</v>
+        <v>0.5272770524024963</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.2249137908220291</v>
+        <v>0.2268386632204056</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7051851153373718</v>
+        <v>0.7066335082054138</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7388113141059875</v>
+        <v>0.7385510802268982</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.804854154586792</v>
+        <v>0.8043591380119324</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.1481462568044662</v>
+        <v>0.14748315513134</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.8183287382125854</v>
+        <v>0.8183463215827942</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.4172752499580383</v>
+        <v>0.4185326099395752</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.5104986429214478</v>
+        <v>0.5014914274215698</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.9941827654838562</v>
+        <v>0.9929684996604919</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.5897263288497925</v>
+        <v>0.5888341069221497</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.8420844674110413</v>
+        <v>0.843149721622467</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.07104403525590897</v>
+        <v>0.07035175710916519</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.6531187295913696</v>
+        <v>0.6504260897636414</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.6349092721939087</v>
+        <v>0.6372590065002441</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.2624630033969879</v>
+        <v>0.2648482918739319</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7614800333976746</v>
+        <v>0.7672151923179626</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.2073997110128403</v>
+        <v>0.2072450369596481</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.7094776034355164</v>
+        <v>0.7101072072982788</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.4935839772224426</v>
+        <v>0.5042318105697632</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.818328857421875</v>
+        <v>0.8183466792106628</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.7058424949645996</v>
+        <v>0.7065109014511108</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.3406701385974884</v>
+        <v>0.340977668762207</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.3898933529853821</v>
+        <v>0.3844958543777466</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.4609600007534027</v>
+        <v>0.4563839137554169</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.4078927338123322</v>
+        <v>0.4046193361282349</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.2321534007787704</v>
+        <v>0.2314578741788864</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.2256535440683365</v>
+        <v>0.2287524491548538</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.4164315760135651</v>
+        <v>0.4156928062438965</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8997647166252136</v>
+        <v>0.8978259563446045</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7418440580368042</v>
+        <v>0.7445629835128784</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7403404116630554</v>
+        <v>0.739874541759491</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.4450455009937286</v>
+        <v>0.4405902624130249</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.3928492665290833</v>
+        <v>0.3919342160224915</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7600338459014893</v>
+        <v>0.7643268704414368</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.6611374616622925</v>
+        <v>0.6597297191619873</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7993816137313843</v>
+        <v>0.7942562103271484</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.255064845085144</v>
+        <v>0.258568674325943</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.5671238899230957</v>
+        <v>0.5681731700897217</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.8977697491645813</v>
+        <v>0.8990334272384644</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.3221927285194397</v>
+        <v>0.3176658451557159</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.002069473266602</v>
+        <v>1.002058029174805</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.1447585970163345</v>
+        <v>0.1477857679128647</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.009210586547852</v>
+        <v>1.007047533988953</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.5242289304733276</v>
+        <v>0.5195471048355103</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.5297517776489258</v>
+        <v>0.5370116829872131</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.5914238691329956</v>
+        <v>0.5879303812980652</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.6369301080703735</v>
+        <v>0.6393919587135315</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.2248089462518692</v>
+        <v>0.2216828912496567</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.363766610622406</v>
+        <v>0.3640242516994476</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.1278790384531021</v>
+        <v>0.1298558861017227</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.409437894821167</v>
+        <v>0.4088630676269531</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.3284096717834473</v>
+        <v>0.3306826651096344</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.538901686668396</v>
+        <v>0.5352495312690735</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.5971254706382751</v>
+        <v>0.596403181552887</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.2298528999090195</v>
+        <v>0.2311248332262039</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.4943553507328033</v>
+        <v>0.4981779754161835</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.5196323394775391</v>
+        <v>0.5174601674079895</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.4159196615219116</v>
+        <v>0.4151917695999146</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.3066663444042206</v>
+        <v>0.3047109842300415</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.4743037521839142</v>
+        <v>0.4728808701038361</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.5599321722984314</v>
+        <v>0.557584285736084</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.2379703223705292</v>
+        <v>0.2405503690242767</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.4375519752502441</v>
+        <v>0.4431790411472321</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.07641447335481644</v>
+        <v>0.07653123885393143</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.3984064757823944</v>
+        <v>0.402043342590332</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.1190651133656502</v>
+        <v>0.1199244931340218</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.8148173689842224</v>
+        <v>0.8149569630622864</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.1109092906117439</v>
+        <v>0.1091159954667091</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.7175171375274658</v>
+        <v>0.7180330157279968</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.9594193696975708</v>
+        <v>0.9592438340187073</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.2950641512870789</v>
+        <v>0.296514630317688</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.5758190155029297</v>
+        <v>0.5779631733894348</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.09983006864786148</v>
+        <v>0.1018287613987923</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.5569315552711487</v>
+        <v>0.5619641542434692</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.440967470407486</v>
+        <v>0.428772509098053</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.07134566456079483</v>
+        <v>0.07217372208833694</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.3201548755168915</v>
+        <v>0.3216745853424072</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.6996341347694397</v>
+        <v>0.6974164843559265</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.1072710826992989</v>
+        <v>0.1075634136795998</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.3752972781658173</v>
+        <v>0.3753909170627594</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.5328787565231323</v>
+        <v>0.5324099659919739</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.4970040619373322</v>
+        <v>0.4970007240772247</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.1494175046682358</v>
+        <v>0.1490107625722885</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.7525507211685181</v>
+        <v>0.7504633665084839</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.4276643097400665</v>
+        <v>0.4276949465274811</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.7083380818367004</v>
+        <v>0.7091071605682373</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.8185615539550781</v>
+        <v>0.8178667426109314</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.8410645723342896</v>
+        <v>0.840359091758728</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.8074678182601929</v>
+        <v>0.8088851571083069</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.09956536442041397</v>
+        <v>0.09970400482416153</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.657596230506897</v>
+        <v>0.6562688946723938</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.3417328000068665</v>
+        <v>0.3334476947784424</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.3989211916923523</v>
+        <v>0.3924426138401031</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.5241992473602295</v>
+        <v>0.5269235372543335</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.7905660271644592</v>
+        <v>0.7863566875457764</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.5272969007492065</v>
+        <v>0.5294933319091797</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.6030863523483276</v>
+        <v>0.6056961417198181</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.3118338882923126</v>
+        <v>0.3117457330226898</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.3037382960319519</v>
+        <v>0.3018237352371216</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.5185168385505676</v>
+        <v>0.5163908004760742</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1.065265893936157</v>
+        <v>1.063514828681946</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.3989804089069366</v>
+        <v>0.3996079862117767</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.6259393692016602</v>
+        <v>0.624474048614502</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.5084299445152283</v>
+        <v>0.5051493644714355</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.009231686592102</v>
+        <v>1.00770902633667</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.6311783790588379</v>
+        <v>0.6349179744720459</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.6313144564628601</v>
+        <v>0.6346675753593445</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.7328497767448425</v>
+        <v>0.7350858449935913</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.2111037820577621</v>
+        <v>0.2136763483285904</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.4743036925792694</v>
+        <v>0.4728808701038361</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.5185210704803467</v>
+        <v>0.5312867164611816</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.5030225515365601</v>
+        <v>0.5033257603645325</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.4872934818267822</v>
+        <v>0.4866059422492981</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.5958552360534668</v>
+        <v>0.5986465215682983</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.6053417325019836</v>
+        <v>0.6059468388557434</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.5447801351547241</v>
+        <v>0.5453779101371765</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.8500615358352661</v>
+        <v>0.8478490114212036</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.9744462370872498</v>
+        <v>0.9742239117622375</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.1014323011040688</v>
+        <v>0.1009001806378365</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.113717295229435</v>
+        <v>0.1120875850319862</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.6038159132003784</v>
+        <v>0.6041263341903687</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.6427282691001892</v>
+        <v>0.6416125297546387</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.6983591914176941</v>
+        <v>0.6993523836135864</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.2275122851133347</v>
+        <v>0.2315365225076675</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.1349179893732071</v>
+        <v>0.131563737988472</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.4172714948654175</v>
+        <v>0.4156610071659088</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.2831360101699829</v>
+        <v>0.2815009355545044</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.5036885738372803</v>
+        <v>0.5021697878837585</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.2966654896736145</v>
+        <v>0.2956134378910065</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.7068384885787964</v>
+        <v>0.706009566783905</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.5516072511672974</v>
+        <v>0.5516137480735779</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.1123224571347237</v>
+        <v>0.1141354218125343</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.2024766355752945</v>
+        <v>0.2022656053304672</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.8524703979492188</v>
+        <v>0.8525955080986023</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.7366198301315308</v>
+        <v>0.7385945916175842</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.09928397089242935</v>
+        <v>0.100630410015583</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.413574755191803</v>
+        <v>0.4163329005241394</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.2635529339313507</v>
+        <v>0.2670645713806152</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.6534652709960938</v>
+        <v>0.6534005999565125</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.1151622608304024</v>
+        <v>0.1163052394986153</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.5526831746101379</v>
+        <v>0.5549013018608093</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.4872805774211884</v>
+        <v>0.4847986996173859</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.8772215247154236</v>
+        <v>0.8763546943664551</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.2302369922399521</v>
+        <v>0.2304732948541641</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.8528335094451904</v>
+        <v>0.8468799591064453</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1.021882295608521</v>
+        <v>1.023271679878235</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.2345327287912369</v>
+        <v>0.2353497445583344</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1914502531290054</v>
+        <v>0.1908931881189346</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.1871193796396255</v>
+        <v>0.1869313269853592</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.1325012296438217</v>
+        <v>0.1354010552167892</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.059785604476929</v>
+        <v>1.05573308467865</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.5815302729606628</v>
+        <v>0.5804287195205688</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.4133642613887787</v>
+        <v>0.4140974283218384</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.1921754628419876</v>
+        <v>0.1953869611024857</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.6164880394935608</v>
+        <v>0.614660918712616</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.8352146148681641</v>
+        <v>0.8337441086769104</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.07818192988634109</v>
+        <v>0.07738862186670303</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.9230900406837463</v>
+        <v>0.923919677734375</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.2221021801233292</v>
+        <v>0.2294055968523026</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.6114386916160583</v>
+        <v>0.6105697154998779</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.3420915007591248</v>
+        <v>0.3444399535655975</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.5867696404457092</v>
+        <v>0.5913800001144409</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.1549331694841385</v>
+        <v>0.1466140598058701</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.2516515254974365</v>
+        <v>0.2519370317459106</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.2733208537101746</v>
+        <v>0.2722784280776978</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.9582812786102295</v>
+        <v>0.9581925272941589</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.04025490209460258</v>
+        <v>0.08463890105485916</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.5856597423553467</v>
+        <v>0.5801056027412415</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.5783999562263489</v>
+        <v>0.571075975894928</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.3053621649742126</v>
+        <v>0.2955780923366547</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.112702377140522</v>
+        <v>0.1121584251523018</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.4632731378078461</v>
+        <v>0.46723473072052</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.2460397630929947</v>
+        <v>0.2470268458127975</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.1971984654664993</v>
+        <v>0.2015009075403214</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.9587047100067139</v>
+        <v>0.9580257534980774</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.5969353914260864</v>
+        <v>0.5955727696418762</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.6087217926979065</v>
+        <v>0.6069392561912537</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.3897051215171814</v>
+        <v>0.3888507485389709</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.750578761100769</v>
+        <v>0.751000702381134</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.2382268756628036</v>
+        <v>0.2357750684022903</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.7931345105171204</v>
+        <v>0.7905661463737488</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.4645170271396637</v>
+        <v>0.4696326851844788</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
